--- a/document/项目管理系统需求调研.xlsx
+++ b/document/项目管理系统需求调研.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\project\java\projectManagementSystem\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09E3578-D7B5-46C8-8F11-C08313345C11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DCD2F5B-42C0-401C-94BE-74D6577ABE0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <sheet name="数据导出财务" sheetId="15" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="207">
   <si>
     <t>项目管理系统</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -795,6 +796,10 @@
   </si>
   <si>
     <t>联系人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                               </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6050,8 +6055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D0DB54F-915D-4C72-AE50-1B9C225AFC3C}">
   <dimension ref="B2:Q28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:P7"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6603,7 +6608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF983230-8DE3-40A5-B7AC-7ADA31258A65}">
   <dimension ref="B2:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
@@ -9703,8 +9708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E791D5-1846-4198-ACE0-0D6ECD6BFA45}">
   <dimension ref="B3:AE86"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44:M50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9757,7 +9762,7 @@
       <c r="I4" s="36"/>
       <c r="J4" s="43"/>
       <c r="K4" s="43" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L4" s="35"/>
       <c r="M4" s="36"/>
@@ -10668,6 +10673,9 @@
       <c r="L33" s="35"/>
       <c r="M33" s="36"/>
       <c r="N33" s="44"/>
+      <c r="P33" s="37" t="s">
+        <v>206</v>
+      </c>
       <c r="Q33" s="42"/>
       <c r="R33" s="43" t="s">
         <v>148</v>
@@ -10840,7 +10848,7 @@
         <v>119</v>
       </c>
       <c r="M38" s="43"/>
-      <c r="N38" s="43"/>
+      <c r="N38" s="44"/>
       <c r="O38" s="44"/>
       <c r="R38" s="42"/>
       <c r="S38" s="43"/>
